--- a/src/main/java/excel/test.xlsx
+++ b/src/main/java/excel/test.xlsx
@@ -1,31 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\importExcel\src\main\java\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A07672C-6139-455B-9F1B-3F93CD972204}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{65520C55-652C-49C4-82A4-DDDAC0BF8F3E}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>来料检验参数记录表</t>
   </si>
@@ -58,7 +47,6 @@
   </si>
   <si>
     <t>abc${X-paramRecords.inspectionTypeName}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>检验项目</t>
@@ -68,18 +56,15 @@
   </si>
   <si>
     <t>asd</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>${X-paramRecords.no2}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>zfczdv</t>
   </si>
   <si>
     <t xml:space="preserve"> qwq</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>${X-paramRecords2.no2}</t>
   </si>
   <si>
     <t>检验设备</t>
@@ -125,11 +110,9 @@
   </si>
   <si>
     <t>${no}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>${X-paramRecords.no}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>aad</t>
@@ -138,38 +121,34 @@
     <t>adfs</t>
   </si>
   <si>
+    <t xml:space="preserve">   </t>
+  </si>
+  <si>
     <t>adsda</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">   </t>
-    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>sds</t>
+  </si>
+  <si>
+    <t>sdd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -177,7 +156,6 @@
       <sz val="8"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -185,46 +163,35 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="7"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="8.5"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
       <charset val="134"/>
     </font>
     <font>
@@ -234,8 +201,152 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -244,12 +355,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -259,29 +550,29 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -289,147 +580,397 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
         <u val="none"/>
-        <vertAlign val="baseline"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
       </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -438,9 +979,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -489,7 +1027,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -522,26 +1060,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -574,23 +1095,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -732,303 +1236,308 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91C4E172-CA49-4972-8C0C-20782EF801EC}">
-  <dimension ref="A1:S22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V7" sqref="V7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="17" max="17" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="22.5" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="17"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="22" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="22"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="22"/>
-      <c r="K2" s="5" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:19" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+    <row r="3" ht="9.95" customHeight="1"/>
+    <row r="4" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-    </row>
-    <row r="5" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="6" t="s">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="8"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="18"/>
+      <c r="P5" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="P5" s="18" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="Q5" s="18"/>
-      <c r="R5" s="15" t="s">
+      <c r="S5" s="16"/>
+      <c r="T5" t="s">
         <v>16</v>
       </c>
-      <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A6" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="14"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="13"/>
+      <c r="C6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
-    </row>
-    <row r="7" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="14" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="P6" s="19"/>
+      <c r="Q6" s="19"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="14"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="13"/>
+      <c r="C7" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-    </row>
-    <row r="8" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="14" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+    </row>
+    <row r="8" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A8" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="13"/>
+      <c r="C8" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-    </row>
-    <row r="9" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A9" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="13"/>
+      <c r="C9" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="14" t="s">
+      <c r="D9" s="11"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="14"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="13"/>
+      <c r="C10" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="14" t="s">
+      <c r="D10" s="11"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A11" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="14"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="13"/>
+      <c r="C11" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="14" t="s">
+      <c r="D11" s="11"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A12" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="14"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="13"/>
+      <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
-    </row>
-    <row r="13" spans="1:19" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="6" t="s">
+      <c r="D12" s="11"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A13" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="12" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-    </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="17" spans="4:4">
       <c r="D17" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:4">
       <c r="C18" t="s">
         <v>34</v>
       </c>
       <c r="D18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="3:3">
+      <c r="C21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D19" s="15"/>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" t="s">
-        <v>36</v>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="A8:B8"/>
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
@@ -1037,27 +1546,28 @@
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="P5:Q5"/>
-    <mergeCell ref="R5:S5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="C19:D20"/>
+    <mergeCell ref="R5:S6"/>
   </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/java/excel/test.xlsx
+++ b/src/main/java/excel/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\importExcel\src\main\java\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{807DD5C6-3B9A-4AD0-8B3F-20C95A4F240B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -118,6 +112,9 @@
     <t>${no}</t>
   </si>
   <si>
+    <t>${X-paramRecords.no}</t>
+  </si>
+  <si>
     <t>aad</t>
   </si>
   <si>
@@ -131,25 +128,23 @@
   </si>
   <si>
     <t>sds</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>sdd</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>${X-paramRecords.no}</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,13 +202,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -222,12 +355,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -258,6 +571,50 @@
       <top style="thin">
         <color auto="1"/>
       </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -275,17 +632,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -293,15 +639,6 @@
       <top style="thin">
         <color auto="1"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
@@ -309,18 +646,249 @@
     </border>
     <border>
       <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FFB2B2B2"/>
       </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -334,30 +902,87 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -367,86 +992,70 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -455,20 +1064,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -477,9 +1075,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -737,368 +1332,373 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="17" max="17" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="1" ht="22.5" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="11"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="30"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="26" t="s">
+    <row r="2" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="28" t="s">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="28"/>
-      <c r="H2" s="4" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="3" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="21" t="s">
+    <row r="3" ht="9.95" customHeight="1"/>
+    <row r="4" ht="25" customHeight="1" spans="1:12">
+      <c r="A4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="22"/>
-      <c r="C4" s="29" t="s">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="5">
+      <c r="D4" s="11"/>
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23"/>
-      <c r="B5" s="24"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="15">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" ht="25" customHeight="1" spans="1:12">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="15">
+      <c r="G5" s="7">
         <v>5</v>
       </c>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-    </row>
-    <row r="6" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" ht="25" customHeight="1" spans="1:20">
+      <c r="A6" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="6" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="8"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="20" t="s">
+      <c r="O6" s="31"/>
+      <c r="P6" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="16" t="s">
+      <c r="Q6" s="31"/>
+      <c r="R6" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="16"/>
+      <c r="S6" s="29"/>
       <c r="T6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17" t="s">
+    <row r="7" ht="25" customHeight="1" spans="1:20">
+      <c r="A7" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="6" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="29"/>
       <c r="T7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+    <row r="8" ht="25" customHeight="1" spans="1:12">
+      <c r="A8" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="6" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" ht="25" customHeight="1" spans="1:12">
+      <c r="A9" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="17"/>
-      <c r="C9" s="6" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="7"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" ht="25" customHeight="1" spans="1:12">
+      <c r="A10" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="17"/>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="7"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" ht="25" customHeight="1" spans="1:12">
+      <c r="A11" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" ht="25" customHeight="1" spans="1:12">
+      <c r="A12" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="17"/>
-      <c r="C12" s="6" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" ht="25" customHeight="1" spans="1:12">
+      <c r="A13" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="17"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" ht="25" customHeight="1" spans="1:12">
+      <c r="A14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9" t="s">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="3:4">
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4">
+      <c r="C20" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="29"/>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="29" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-    </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="D18" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="D20" s="16"/>
-    </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="16"/>
-      <c r="D21" s="16"/>
-    </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="4:4">
       <c r="D23">
         <v>222</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A4:B5"/>
+  <mergeCells count="19">
     <mergeCell ref="E1:I1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A4:B5"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="C14:D15"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/java/excel/test.xlsx
+++ b/src/main/java/excel/test.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23231"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java\importExcel\src\main\java\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD7BC9D-E159-4AA3-BB97-15170F331F50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+  <si>
+    <t>${logo}</t>
+  </si>
   <si>
     <t>来料检验参数记录表</t>
   </si>
@@ -119,6 +116,9 @@
   </si>
   <si>
     <t>${X-paramRecords.no}</t>
+  </si>
+  <si>
+    <t>${logo2}</t>
   </si>
   <si>
     <t>aad</t>
@@ -142,11 +142,15 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,13 +208,151 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +361,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -337,13 +659,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -353,36 +917,96 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -392,101 +1016,70 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="2">
     <dxf>
       <font>
+        <name val="等线"/>
+        <scheme val="none"/>
+        <charset val="134"/>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
         <u val="none"/>
         <sz val="11"/>
         <color rgb="FF9C0006"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -495,20 +1088,9 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <u val="none"/>
-        <sz val="11"/>
-        <color rgb="FF9C0006"/>
-        <name val="等线"/>
-        <charset val="134"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -518,66 +1100,8 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>685799</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="图片 9">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E32AD49D-BBFE-4C88-B98E-DAA9DF171524}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="0" y="4181475"/>
-          <a:ext cx="1371599" cy="2000251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -832,372 +1356,376 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="17" max="17" width="5.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1"/>
+    <row r="1" ht="22.5" spans="1:12">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="2"/>
       <c r="C1" s="1"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="13"/>
+      <c r="E1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="33"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+    <row r="2" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="4" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="36" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="4" t="s">
+      <c r="F2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="J2" s="7"/>
+      <c r="K2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" ht="9.9499999999999993" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="26" t="s">
+      <c r="L2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="16" t="s">
+    </row>
+    <row r="3" ht="9.95" customHeight="1"/>
+    <row r="4" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="5">
+      <c r="B4" s="9"/>
+      <c r="C4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7">
         <v>5</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F4" s="7">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
+      <c r="G4" s="7">
         <v>5</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="5">
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+    </row>
+    <row r="5" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="7">
         <v>5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F5" s="7">
         <v>5</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="7">
         <v>5</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="6" t="s">
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+    </row>
+    <row r="6" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A6" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14" t="s">
+      <c r="B6" s="17"/>
+      <c r="C6" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="O6" s="14"/>
-      <c r="P6" s="32" t="s">
+      <c r="D6" s="19"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="34"/>
+      <c r="N6" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="20" t="s">
+      <c r="O6" s="34"/>
+      <c r="P6" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="S6" s="20"/>
+      <c r="Q6" s="34"/>
+      <c r="R6" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="S6" s="31"/>
       <c r="T6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="6" t="s">
+    </row>
+    <row r="7" ht="24.95" customHeight="1" spans="1:20">
+      <c r="A7" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="21"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
       <c r="T7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="6" t="s">
+    <row r="8" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="8"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-    </row>
-    <row r="9" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="6" t="s">
+      <c r="D8" s="21"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+    </row>
+    <row r="9" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A9" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="8"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="6" t="s">
+      <c r="D9" s="21"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+    </row>
+    <row r="10" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A10" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="8"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="6" t="s">
+      <c r="D10" s="21"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A11" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="8"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="B11" s="20"/>
+      <c r="C11" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="6" t="s">
+      <c r="D11" s="21"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A12" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="6" t="s">
+      <c r="D12" s="21"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+      <c r="J12" s="7"/>
+      <c r="K12" s="7"/>
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="8"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="1:20" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="6" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="9"/>
-      <c r="C14" s="21" t="s">
+      <c r="D13" s="21"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" ht="24.95" customHeight="1" spans="1:12">
+      <c r="A14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15" s="27"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="29"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="30"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="30"/>
+      <c r="B17" s="30"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
       <c r="D18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="30"/>
+      <c r="B19" s="30"/>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="20"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="20"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="D22" s="12" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="31" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="D20" s="31"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D22" s="31" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
       <c r="D23">
         <v>222</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="39"/>
-      <c r="B26" s="39"/>
+    <row r="24" spans="1:2">
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+    </row>
+    <row r="25" ht="48" customHeight="1" spans="1:2">
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="32"/>
+      <c r="B26" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -1206,36 +1734,35 @@
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C4:D5"/>
-    <mergeCell ref="C20:D21"/>
-    <mergeCell ref="R6:S7"/>
-    <mergeCell ref="C14:D15"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A4:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C20:D21"/>
+    <mergeCell ref="R6:S7"/>
+    <mergeCell ref="C14:D15"/>
     <mergeCell ref="A15:B25"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="C14">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>